--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06088C38-2494-4BA9-8449-3FC9A5263704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D713C9A-EC02-4D85-9B80-FC1729C54297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>Index</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>TYPE 2</t>
+  </si>
+  <si>
+    <t>Additive Sequence</t>
+  </si>
+  <si>
+    <t>Closest Neighbhour in BST</t>
   </si>
 </sst>
 </file>
@@ -188,8 +194,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:E22" totalsRowShown="0">
-  <autoFilter ref="A2:E22" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:E26" totalsRowShown="0">
+  <autoFilter ref="A2:E26" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B315E6F6-7F50-4918-BCC6-BFFEBA2B4C7D}" name="Index"/>
     <tableColumn id="2" xr3:uid="{8BC6D503-D6CF-48B5-909C-FBEA45187C84}" name="Problem Statement"/>
@@ -466,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -778,16 +784,38 @@
       <c r="A23">
         <v>21</v>
       </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D713C9A-EC02-4D85-9B80-FC1729C54297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAE2D8F-D3F1-434D-99AD-1ADAA75F4FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>Index</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Closest Neighbhour in BST</t>
+  </si>
+  <si>
+    <t>Pairs Violating BST property</t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E24"/>
+  <dimension ref="A2:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -811,6 +814,20 @@
         <v>4</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAE2D8F-D3F1-434D-99AD-1ADAA75F4FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27215C2D-7E72-46E4-B1E2-5FF29BD7C259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>Index</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Pairs Violating BST property</t>
+  </si>
+  <si>
+    <t>K-th Common Ancestor BST</t>
   </si>
 </sst>
 </file>
@@ -473,20 +476,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E25"/>
+  <dimension ref="A2:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="4" width="23.6328125" customWidth="1"/>
-    <col min="5" max="5" width="23.54296875" customWidth="1"/>
+    <col min="3" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -503,7 +506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -517,7 +520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -531,7 +534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -545,7 +548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -559,7 +562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -573,7 +576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -587,7 +590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -601,7 +604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -615,7 +618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -629,7 +632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -643,7 +646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -657,7 +660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -671,7 +674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -685,7 +688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -699,7 +702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -713,7 +716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -727,7 +730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -741,7 +744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -755,7 +758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -769,7 +772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -783,7 +786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -800,7 +803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -814,7 +817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -825,6 +828,20 @@
         <v>11</v>
       </c>
       <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27215C2D-7E72-46E4-B1E2-5FF29BD7C259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232FF50C-8C2F-465F-B6AE-7C7029511FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>Index</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>K-th Common Ancestor BST</t>
+  </si>
+  <si>
+    <t>Strictly Increasing Array</t>
+  </si>
+  <si>
+    <t>DP</t>
   </si>
 </sst>
 </file>
@@ -200,8 +206,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:E26" totalsRowShown="0">
-  <autoFilter ref="A2:E26" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:E27" totalsRowShown="0">
+  <autoFilter ref="A2:E27" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B315E6F6-7F50-4918-BCC6-BFFEBA2B4C7D}" name="Index"/>
     <tableColumn id="2" xr3:uid="{8BC6D503-D6CF-48B5-909C-FBEA45187C84}" name="Problem Statement"/>
@@ -476,20 +482,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E26"/>
+  <dimension ref="A2:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="3" max="4" width="23.6328125" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -506,7 +512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -520,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -534,7 +540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -548,7 +554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -562,7 +568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -576,7 +582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -590,7 +596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -604,7 +610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -618,7 +624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -632,7 +638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -646,7 +652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -660,7 +666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -674,7 +680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -688,7 +694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -702,7 +708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -716,7 +722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -730,7 +736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -744,7 +750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -758,7 +764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -772,7 +778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -786,7 +792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -803,7 +809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -817,7 +823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -831,7 +837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -843,6 +849,20 @@
       </c>
       <c r="E26" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232FF50C-8C2F-465F-B6AE-7C7029511FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB01E623-3F23-4B3E-9E79-2DB5AA3999B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
   <si>
     <t>Index</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>DP</t>
+  </si>
+  <si>
+    <t>Minimize the Difference between the remaining Array</t>
+  </si>
+  <si>
+    <t>Greedy</t>
   </si>
 </sst>
 </file>
@@ -206,8 +212,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:E27" totalsRowShown="0">
-  <autoFilter ref="A2:E27" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:E28" totalsRowShown="0">
+  <autoFilter ref="A2:E28" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B315E6F6-7F50-4918-BCC6-BFFEBA2B4C7D}" name="Index"/>
     <tableColumn id="2" xr3:uid="{8BC6D503-D6CF-48B5-909C-FBEA45187C84}" name="Problem Statement"/>
@@ -482,20 +488,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E27"/>
+  <dimension ref="A2:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="4" width="23.6328125" customWidth="1"/>
-    <col min="5" max="5" width="23.54296875" customWidth="1"/>
+    <col min="3" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -512,7 +518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -526,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -540,7 +546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -554,7 +560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -568,7 +574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -582,7 +588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -596,7 +602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -610,7 +616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -624,7 +630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -638,7 +644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -652,7 +658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -666,7 +672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -680,7 +686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -694,7 +700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -708,7 +714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -722,7 +728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -736,7 +742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -750,7 +756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -764,7 +770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -778,7 +784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -792,7 +798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -809,7 +815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -823,7 +829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -837,7 +843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -851,7 +857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -863,6 +869,23 @@
       </c>
       <c r="E27" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB01E623-3F23-4B3E-9E79-2DB5AA3999B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB9FD3D-FC71-4470-88C8-F422FB27A426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="1120" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
   <si>
     <t>Index</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Greedy</t>
+  </si>
+  <si>
+    <t>Count the number of possible ways to count stairs</t>
   </si>
 </sst>
 </file>
@@ -212,8 +215,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:E28" totalsRowShown="0">
-  <autoFilter ref="A2:E28" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:E30" totalsRowShown="0">
+  <autoFilter ref="A2:E30" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B315E6F6-7F50-4918-BCC6-BFFEBA2B4C7D}" name="Index"/>
     <tableColumn id="2" xr3:uid="{8BC6D503-D6CF-48B5-909C-FBEA45187C84}" name="Problem Statement"/>
@@ -488,20 +491,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E28"/>
+  <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="3" max="4" width="23.6328125" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -518,7 +521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -532,7 +535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -546,7 +549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -560,7 +563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -574,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -588,7 +591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -602,7 +605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -616,7 +619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -630,7 +633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -644,7 +647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -658,7 +661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -672,7 +675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -686,7 +689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -700,7 +703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -714,7 +717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -728,7 +731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -742,7 +745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -756,7 +759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -770,7 +773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -784,7 +787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -798,7 +801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -815,7 +818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -829,7 +832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -843,7 +846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -857,7 +860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -871,7 +874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -886,6 +889,20 @@
       </c>
       <c r="E28" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB9FD3D-FC71-4470-88C8-F422FB27A426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDC22FF-EF7C-4E24-B6A3-7819ADDD9300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="1120" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>Index</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Count the number of possible ways to count stairs</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence Variation</t>
+  </si>
+  <si>
+    <t>Constructing a List with XOR queries</t>
   </si>
 </sst>
 </file>
@@ -215,8 +221,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:E30" totalsRowShown="0">
-  <autoFilter ref="A2:E30" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:E32" totalsRowShown="0">
+  <autoFilter ref="A2:E32" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B315E6F6-7F50-4918-BCC6-BFFEBA2B4C7D}" name="Index"/>
     <tableColumn id="2" xr3:uid="{8BC6D503-D6CF-48B5-909C-FBEA45187C84}" name="Problem Statement"/>
@@ -491,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E29"/>
+  <dimension ref="A2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -905,6 +911,34 @@
         <v>4</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDC22FF-EF7C-4E24-B6A3-7819ADDD9300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6B05E1-F69B-4175-83EC-BF854D9D4C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="1120" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
   <si>
     <t>Index</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Constructing a List with XOR queries</t>
+  </si>
+  <si>
+    <t>Frog Jumps</t>
   </si>
 </sst>
 </file>
@@ -497,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E31"/>
+  <dimension ref="A2:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -939,6 +942,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6B05E1-F69B-4175-83EC-BF854D9D4C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF5D90F-7565-4017-A2F3-2A47DA695978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="1120" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
   <si>
     <t>Index</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Frog Jumps</t>
+  </si>
+  <si>
+    <t>Max Sum Configuration</t>
   </si>
 </sst>
 </file>
@@ -224,8 +227,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:E32" totalsRowShown="0">
-  <autoFilter ref="A2:E32" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:E34" totalsRowShown="0">
+  <autoFilter ref="A2:E34" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B315E6F6-7F50-4918-BCC6-BFFEBA2B4C7D}" name="Index"/>
     <tableColumn id="2" xr3:uid="{8BC6D503-D6CF-48B5-909C-FBEA45187C84}" name="Problem Statement"/>
@@ -500,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E32"/>
+  <dimension ref="A2:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -956,6 +959,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF5D90F-7565-4017-A2F3-2A47DA695978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBED80A-4D23-4D3F-9161-C2FC716A0B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="1120" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
   <si>
     <t>Index</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Max Sum Configuration</t>
+  </si>
+  <si>
+    <t>Prime Pair with Target Sum</t>
   </si>
 </sst>
 </file>
@@ -503,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E33"/>
+  <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -976,6 +979,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBED80A-4D23-4D3F-9161-C2FC716A0B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9715EEFF-C1B3-43A3-B8A0-29EACEF6B1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="1120" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
   <si>
     <t>Index</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Prime Pair with Target Sum</t>
+  </si>
+  <si>
+    <t>Maxiumum Sum of non-adjacent Elements</t>
   </si>
 </sst>
 </file>
@@ -230,8 +233,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:E34" totalsRowShown="0">
-  <autoFilter ref="A2:E34" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:E35" totalsRowShown="0">
+  <autoFilter ref="A2:E35" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B315E6F6-7F50-4918-BCC6-BFFEBA2B4C7D}" name="Index"/>
     <tableColumn id="2" xr3:uid="{8BC6D503-D6CF-48B5-909C-FBEA45187C84}" name="Problem Statement"/>
@@ -506,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E34"/>
+  <dimension ref="A2:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -996,6 +999,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9715EEFF-C1B3-43A3-B8A0-29EACEF6B1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E03323-93BE-44AD-A6CC-703476110198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="1120" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="52">
   <si>
     <t>Index</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Maxiumum Sum of non-adjacent Elements</t>
+  </si>
+  <si>
+    <t>Check if two line segments intersect or not</t>
   </si>
 </sst>
 </file>
@@ -233,8 +236,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:E35" totalsRowShown="0">
-  <autoFilter ref="A2:E35" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:E36" totalsRowShown="0">
+  <autoFilter ref="A2:E36" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B315E6F6-7F50-4918-BCC6-BFFEBA2B4C7D}" name="Index"/>
     <tableColumn id="2" xr3:uid="{8BC6D503-D6CF-48B5-909C-FBEA45187C84}" name="Problem Statement"/>
@@ -509,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E35"/>
+  <dimension ref="A2:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
@@ -1013,6 +1016,20 @@
         <v>4</v>
       </c>
     </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E03323-93BE-44AD-A6CC-703476110198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AF1C62-5D48-4878-90A7-9C62DB6C8B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="1120" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="57">
   <si>
     <t>Index</t>
   </si>
@@ -181,6 +181,21 @@
   </si>
   <si>
     <t>Check if two line segments intersect or not</t>
+  </si>
+  <si>
+    <t>Number of Rectangles in a circle</t>
+  </si>
+  <si>
+    <t>Maximum Tip Calculator</t>
+  </si>
+  <si>
+    <t>Problem Link</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/maximum-tip-calculator2631/1</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/sum-of-prime4751/1</t>
   </si>
 </sst>
 </file>
@@ -236,14 +251,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:E36" totalsRowShown="0">
-  <autoFilter ref="A2:E36" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:F39" totalsRowShown="0">
+  <autoFilter ref="A2:F39" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B315E6F6-7F50-4918-BCC6-BFFEBA2B4C7D}" name="Index"/>
     <tableColumn id="2" xr3:uid="{8BC6D503-D6CF-48B5-909C-FBEA45187C84}" name="Problem Statement"/>
     <tableColumn id="3" xr3:uid="{CDFC4EEC-4799-479F-934F-2FA15E253801}" name="TYPE 1"/>
     <tableColumn id="4" xr3:uid="{3680E4EB-72E6-49ED-9FA5-379DFC8B68DB}" name="TYPE 2"/>
     <tableColumn id="5" xr3:uid="{F1579D5E-34AD-4897-86FC-E2E7B78F9ED5}" name="Difficulty"/>
+    <tableColumn id="6" xr3:uid="{EF285E45-38F3-4B60-913A-12B84E7DB993}" name="Problem Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -512,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E36"/>
+  <dimension ref="A2:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -523,9 +539,10 @@
     <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="4" width="23.6328125" customWidth="1"/>
     <col min="5" max="5" width="23.54296875" customWidth="1"/>
+    <col min="6" max="6" width="25.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -541,8 +558,11 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -556,7 +576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -570,7 +590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -584,7 +604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -598,7 +618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -612,7 +632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -626,7 +646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -640,7 +660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -654,7 +674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -668,7 +688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -682,7 +702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -696,7 +716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -710,7 +730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -724,7 +744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -968,7 +988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -985,7 +1005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1001,8 +1021,11 @@
       <c r="E34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1016,7 +1039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1028,6 +1051,40 @@
       </c>
       <c r="E36" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AF1C62-5D48-4878-90A7-9C62DB6C8B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408C5A0A-8444-4F28-A4D2-911B418394D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="1120" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
   <si>
     <t>Index</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/problems/sum-of-prime4751/1</t>
+  </si>
+  <si>
+    <t>Duplicate SubTree</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/duplicate-subtrees/1</t>
   </si>
 </sst>
 </file>
@@ -528,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F38"/>
+  <dimension ref="A2:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1087,6 +1093,23 @@
         <v>55</v>
       </c>
     </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408C5A0A-8444-4F28-A4D2-911B418394D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CF2EB4-4601-4D0C-89EC-668E6002A65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="1120" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
   <si>
     <t>Index</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/problems/duplicate-subtrees/1</t>
+  </si>
+  <si>
+    <t>Indexes of SubArray Sum</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/subarray-with-given-sum-1587115621/1?page=1&amp;sortBy=submissions</t>
   </si>
 </sst>
 </file>
@@ -257,8 +266,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:F39" totalsRowShown="0">
-  <autoFilter ref="A2:F39" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:F40" totalsRowShown="0">
+  <autoFilter ref="A2:F40" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B315E6F6-7F50-4918-BCC6-BFFEBA2B4C7D}" name="Index"/>
     <tableColumn id="2" xr3:uid="{8BC6D503-D6CF-48B5-909C-FBEA45187C84}" name="Problem Statement"/>
@@ -534,21 +543,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F39"/>
+  <dimension ref="A2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="4" width="23.6328125" customWidth="1"/>
-    <col min="5" max="5" width="23.54296875" customWidth="1"/>
-    <col min="6" max="6" width="25.6328125" customWidth="1"/>
+    <col min="3" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -568,7 +576,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -582,7 +590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -596,7 +604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -610,7 +618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -624,7 +632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -638,7 +646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -652,7 +660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -666,7 +674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -680,7 +688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -694,7 +702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -708,7 +716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -722,7 +730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -736,7 +744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -750,7 +758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -764,7 +772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -778,7 +786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -792,7 +800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -806,7 +814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -820,7 +828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -834,7 +842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -848,7 +856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -865,7 +873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -879,7 +887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -893,7 +901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -907,7 +915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -921,7 +929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -938,7 +946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -952,7 +960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -966,7 +974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -980,7 +988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -994,7 +1002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1011,7 +1019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1031,7 +1039,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1045,7 +1053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1059,7 +1067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1073,7 +1081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1093,7 +1101,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1108,6 +1116,26 @@
       </c>
       <c r="F39" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CF2EB4-4601-4D0C-89EC-668E6002A65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204DE0AD-FA23-4B32-9D58-3590BE8017BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="1120" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="64">
   <si>
     <t>Index</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/problems/subarray-with-given-sum-1587115621/1?page=1&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Smallest sum</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/smallest-number5829/1</t>
   </si>
 </sst>
 </file>
@@ -266,8 +272,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:F40" totalsRowShown="0">
-  <autoFilter ref="A2:F40" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:F41" totalsRowShown="0">
+  <autoFilter ref="A2:F41" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B315E6F6-7F50-4918-BCC6-BFFEBA2B4C7D}" name="Index"/>
     <tableColumn id="2" xr3:uid="{8BC6D503-D6CF-48B5-909C-FBEA45187C84}" name="Problem Statement"/>
@@ -543,20 +549,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F40"/>
+  <dimension ref="A2:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="3" max="5" width="23.54296875" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -576,7 +582,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -590,7 +596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -604,7 +610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -618,7 +624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -632,7 +638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -646,7 +652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -660,7 +666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -674,7 +680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -688,7 +694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -702,7 +708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -716,7 +722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -730,7 +736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -744,7 +750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -758,7 +764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -772,7 +778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -786,7 +792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -800,7 +806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -814,7 +820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -828,7 +834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -842,7 +848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -856,7 +862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -873,7 +879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -887,7 +893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -901,7 +907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -915,7 +921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -929,7 +935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -946,7 +952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
@@ -960,7 +966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
@@ -974,7 +980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
@@ -988,7 +994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1002,7 +1008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1053,7 +1059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1067,7 +1073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1081,7 +1087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1101,7 +1107,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1118,7 +1124,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1136,6 +1142,23 @@
       </c>
       <c r="F40" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204DE0AD-FA23-4B32-9D58-3590BE8017BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C375FC17-177A-47AA-9C32-5C3D9ABFE89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="1120" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="66">
   <si>
     <t>Index</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/problems/smallest-number5829/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Product SubArray </t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/maximum-product-subset-of-an-array/1</t>
   </si>
 </sst>
 </file>
@@ -272,8 +278,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:F41" totalsRowShown="0">
-  <autoFilter ref="A2:F41" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:F42" totalsRowShown="0">
+  <autoFilter ref="A2:F42" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B315E6F6-7F50-4918-BCC6-BFFEBA2B4C7D}" name="Index"/>
     <tableColumn id="2" xr3:uid="{8BC6D503-D6CF-48B5-909C-FBEA45187C84}" name="Problem Statement"/>
@@ -549,20 +555,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F41"/>
+  <dimension ref="A2:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="5" width="23.54296875" customWidth="1"/>
-    <col min="6" max="6" width="25.54296875" customWidth="1"/>
+    <col min="3" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -582,7 +588,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -596,7 +602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -610,7 +616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -624,7 +630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -638,7 +644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -652,7 +658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -666,7 +672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -680,7 +686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -694,7 +700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -708,7 +714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -722,7 +728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -736,7 +742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -750,7 +756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -764,7 +770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -778,7 +784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -792,7 +798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -806,7 +812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -820,7 +826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -834,7 +840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -848,7 +854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -862,7 +868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -879,7 +885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -893,7 +899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -907,7 +913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -921,7 +927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -935,7 +941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -952,7 +958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -966,7 +972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -980,7 +986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -994,7 +1000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1008,7 +1014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1025,7 +1031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1045,7 +1051,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1059,7 +1065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1073,7 +1079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1087,7 +1093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1107,7 +1113,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1124,7 +1130,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1144,7 +1150,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1159,6 +1165,23 @@
       </c>
       <c r="F41" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C375FC17-177A-47AA-9C32-5C3D9ABFE89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00A65D5-9C7D-4E94-89A5-347583FFB809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="1120" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="68">
   <si>
     <t>Index</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/problems/maximum-product-subset-of-an-array/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check for BST </t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/check-for-bst/1</t>
   </si>
 </sst>
 </file>
@@ -278,8 +284,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:F42" totalsRowShown="0">
-  <autoFilter ref="A2:F42" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:F43" totalsRowShown="0">
+  <autoFilter ref="A2:F43" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B315E6F6-7F50-4918-BCC6-BFFEBA2B4C7D}" name="Index"/>
     <tableColumn id="2" xr3:uid="{8BC6D503-D6CF-48B5-909C-FBEA45187C84}" name="Problem Statement"/>
@@ -555,20 +561,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F42"/>
+  <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="3" max="5" width="23.54296875" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -588,7 +594,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -602,7 +608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -616,7 +622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -630,7 +636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -644,7 +650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -658,7 +664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -672,7 +678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -686,7 +692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -700,7 +706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -714,7 +720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -728,7 +734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -742,7 +748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -756,7 +762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -770,7 +776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -784,7 +790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -798,7 +804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -812,7 +818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -826,7 +832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -840,7 +846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -854,7 +860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -868,7 +874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -885,7 +891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -899,7 +905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -913,7 +919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -927,7 +933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -941,7 +947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -958,7 +964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
@@ -972,7 +978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
@@ -986,7 +992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1031,7 +1037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1051,7 +1057,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1065,7 +1071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1079,7 +1085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1113,7 +1119,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1130,7 +1136,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1150,7 +1156,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1182,6 +1188,23 @@
       </c>
       <c r="F42" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00A65D5-9C7D-4E94-89A5-347583FFB809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59469B79-D41F-4B7E-ABAC-74D1CD70064C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="1120" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="70">
   <si>
     <t>Index</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/problems/check-for-bst/1</t>
+  </si>
+  <si>
+    <t>Count Smaller Elements</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/count-smaller-elements2214/1</t>
   </si>
 </sst>
 </file>
@@ -284,8 +290,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:F43" totalsRowShown="0">
-  <autoFilter ref="A2:F43" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:F44" totalsRowShown="0">
+  <autoFilter ref="A2:F44" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B315E6F6-7F50-4918-BCC6-BFFEBA2B4C7D}" name="Index"/>
     <tableColumn id="2" xr3:uid="{8BC6D503-D6CF-48B5-909C-FBEA45187C84}" name="Problem Statement"/>
@@ -561,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F43"/>
+  <dimension ref="A2:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1207,6 +1213,23 @@
         <v>67</v>
       </c>
     </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59469B79-D41F-4B7E-ABAC-74D1CD70064C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F72744C-F303-4F44-B9C2-B8FE14B8118D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="1120" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="73">
   <si>
     <t>Index</t>
   </si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/problems/count-smaller-elements2214/1</t>
+  </si>
+  <si>
+    <t>Array to BST</t>
+  </si>
+  <si>
+    <t>BST</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/array-to-bst4443/1</t>
   </si>
 </sst>
 </file>
@@ -290,8 +299,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:F44" totalsRowShown="0">
-  <autoFilter ref="A2:F44" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:F45" totalsRowShown="0">
+  <autoFilter ref="A2:F45" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B315E6F6-7F50-4918-BCC6-BFFEBA2B4C7D}" name="Index"/>
     <tableColumn id="2" xr3:uid="{8BC6D503-D6CF-48B5-909C-FBEA45187C84}" name="Problem Statement"/>
@@ -567,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F44"/>
+  <dimension ref="A2:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1230,6 +1239,26 @@
         <v>69</v>
       </c>
     </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F72744C-F303-4F44-B9C2-B8FE14B8118D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AA87A5-55AD-4DBF-84D2-D99FC4FD747D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="1120" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="75">
   <si>
     <t>Index</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/problems/array-to-bst4443/1</t>
+  </si>
+  <si>
+    <t>K-Pangrams</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/k-pangrams0909/1</t>
   </si>
 </sst>
 </file>
@@ -299,8 +305,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:F45" totalsRowShown="0">
-  <autoFilter ref="A2:F45" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:F46" totalsRowShown="0">
+  <autoFilter ref="A2:F46" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B315E6F6-7F50-4918-BCC6-BFFEBA2B4C7D}" name="Index"/>
     <tableColumn id="2" xr3:uid="{8BC6D503-D6CF-48B5-909C-FBEA45187C84}" name="Problem Statement"/>
@@ -576,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F45"/>
+  <dimension ref="A2:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1259,6 +1265,23 @@
         <v>72</v>
       </c>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AA87A5-55AD-4DBF-84D2-D99FC4FD747D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758CE749-FBBE-4D51-A181-917547864377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="1120" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="81">
   <si>
     <t>Index</t>
   </si>
@@ -250,6 +250,24 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/problems/k-pangrams0909/1</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/row-with-max-1s0023/1</t>
+  </si>
+  <si>
+    <t>Row with Max 1's</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/form-a-palindrome1455/1</t>
+  </si>
+  <si>
+    <t>LCS</t>
+  </si>
+  <si>
+    <t>Form a Palindrome</t>
   </si>
 </sst>
 </file>
@@ -305,8 +323,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:F46" totalsRowShown="0">
-  <autoFilter ref="A2:F46" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:F47" totalsRowShown="0">
+  <autoFilter ref="A2:F47" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B315E6F6-7F50-4918-BCC6-BFFEBA2B4C7D}" name="Index"/>
     <tableColumn id="2" xr3:uid="{8BC6D503-D6CF-48B5-909C-FBEA45187C84}" name="Problem Statement"/>
@@ -582,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F46"/>
+  <dimension ref="A2:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1282,6 +1300,46 @@
         <v>74</v>
       </c>
     </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758CE749-FBBE-4D51-A181-917547864377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D385F7-F460-4444-9B29-F7365466272A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="1120" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="84">
   <si>
     <t>Index</t>
   </si>
@@ -268,6 +268,15 @@
   </si>
   <si>
     <t>Form a Palindrome</t>
+  </si>
+  <si>
+    <t>Rat in a Maze</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/rat-in-a-maze-problem/1</t>
   </si>
 </sst>
 </file>
@@ -600,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F48"/>
+  <dimension ref="A2:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1340,6 +1349,26 @@
         <v>75</v>
       </c>
     </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D385F7-F460-4444-9B29-F7365466272A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BB9646-FE0B-4DBE-9FDD-7A4A47A71BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="1120" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="86">
   <si>
     <t>Index</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/problems/rat-in-a-maze-problem/1</t>
+  </si>
+  <si>
+    <t>Spiral Traversal of a Matrix</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/spirally-traversing-a-matrix-1587115621/1</t>
   </si>
 </sst>
 </file>
@@ -332,8 +338,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:F47" totalsRowShown="0">
-  <autoFilter ref="A2:F47" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}" name="Table1" displayName="Table1" ref="A2:F102" totalsRowShown="0">
+  <autoFilter ref="A2:F102" xr:uid="{12C734C2-023E-44F5-A270-BDD25F90994F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B315E6F6-7F50-4918-BCC6-BFFEBA2B4C7D}" name="Index"/>
     <tableColumn id="2" xr3:uid="{8BC6D503-D6CF-48B5-909C-FBEA45187C84}" name="Problem Statement"/>
@@ -609,20 +615,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F49"/>
+  <dimension ref="A2:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="5" width="23.54296875" customWidth="1"/>
-    <col min="6" max="6" width="25.54296875" customWidth="1"/>
+    <col min="3" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -642,7 +648,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -656,7 +662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -670,7 +676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -684,7 +690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -698,7 +704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -712,7 +718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -726,7 +732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -740,7 +746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -754,7 +760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -768,7 +774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -782,7 +788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -796,7 +802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -810,7 +816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -824,7 +830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -838,7 +844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -852,7 +858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -866,7 +872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -880,7 +886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -894,7 +900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -908,7 +914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -922,7 +928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -939,7 +945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -953,7 +959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -967,7 +973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -981,7 +987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -995,7 +1001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1012,7 +1018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1068,7 +1074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1085,7 +1091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1105,7 +1111,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1119,7 +1125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1133,7 +1139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1204,7 +1210,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1221,7 +1227,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1238,7 +1244,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1255,7 +1261,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1272,7 +1278,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1292,7 +1298,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1309,7 +1315,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1329,7 +1335,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1349,7 +1355,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1367,6 +1373,23 @@
       </c>
       <c r="F49" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Table_of_Contents.xlsx
+++ b/Table_of_Contents.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Code Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BB9646-FE0B-4DBE-9FDD-7A4A47A71BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457CEE7D-F693-44FB-933C-DDDF92376203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="88">
   <si>
     <t>Index</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/problems/spirally-traversing-a-matrix-1587115621/1</t>
+  </si>
+  <si>
+    <t>Longest Prefix Suffix</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/longest-prefix-suffix2527/1</t>
   </si>
 </sst>
 </file>
@@ -615,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F50"/>
+  <dimension ref="A2:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,6 +1398,23 @@
         <v>85</v>
       </c>
     </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
